--- a/Data/Transitions/19501972Translation.xlsx
+++ b/Data/Transitions/19501972Translation.xlsx
@@ -67,7 +67,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -88,7 +88,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -97,7 +97,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927723425900513}</t>
+    <t>{49.0: 0.8862897962909823}</t>
   </si>
   <si>
     <t>{50.0: 0.989247311827957, 96.0: 0.989247311827957, 100.0: 0.989247311827957}</t>
@@ -151,7 +151,7 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0031614305473226635}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0031614305473226635}</t>
   </si>
   <si>
     <t>{81.0: 0.9862542955326461}</t>
@@ -181,16 +181,16 @@
     <t>{90.0: 0.999293500201857, 420.0: 0.001734724213537288}</t>
   </si>
   <si>
-    <t>{91.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.004867508316901873}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9562348658443437, 858.0: 0.10635135141719504}</t>
+    <t>{91.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.00453890631355781}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9562348658443437, 858.0: 0.09917164778675883}</t>
   </si>
   <si>
     <t>{95.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9748096321134647}</t>
+    <t>{97.0: 0.9748314063154819}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -232,7 +232,7 @@
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{145.0: 0.9987441357199506, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.03131128830016397, 152.0: 0.00036603571619543685}</t>
+    <t>{145.0: 0.9987441357199506, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.03131128830016397, 152.0: 0.00036603571619543685}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -280,7 +280,7 @@
     <t>{171.0: 0.9402494826791316}</t>
   </si>
   <si>
-    <t>{172.0: 1.0, 81.0: 0.013745704467353952, 97.0: 0.001254904263791793}</t>
+    <t>{172.0: 1.0, 81.0: 0.013745704467353952, 97.0: 0.0012549322944329067}</t>
   </si>
   <si>
     <t>{173.0: 1.0, 420.0: 0.005578022590991494, 831.0: 0.004032258064516129}</t>
@@ -298,7 +298,7 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 1.0, 681.0: 0.005255255255255256, 768.0: 0.012138970280452072}</t>
+    <t>{178.0: 1.0, 681.0: 0.005341763872233729, 768.0: 0.012138970280452072}</t>
   </si>
   <si>
     <t>{179.0: 1.0, 180.0: 0.2009774466209991}</t>
@@ -319,10 +319,10 @@
     <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696}</t>
   </si>
   <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.1435345939594679}</t>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7122708004585847}</t>
   </si>
   <si>
     <t>{202.0: 0.9989543030429782}</t>
@@ -409,13 +409,13 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10722765740994868}</t>
+    <t>{49.0: 0.1137102037090177}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
@@ -427,7 +427,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986, 738.0: 0.007169576059850374, 228.0: 0.007169576059850374}</t>
@@ -436,10 +436,10 @@
     <t>{244.0: 0.9799247176913425, 565.0: 0.010029762906098711, 564.0: 0.00018847476794044198, 84.0: 6.004536785832098e-05}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -460,7 +460,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -484,7 +484,7 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9968385694526773, 79.0: 0.0006499354976056577}</t>
+    <t>{262.0: 0.9968385694526773, 79.0: 0.0006218581219293059}</t>
   </si>
   <si>
     <t>{263.0: 0.9979662270430174}</t>
@@ -493,7 +493,7 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.0657712818487063}</t>
+    <t>{400.0: 0.061638130495141136}</t>
   </si>
   <si>
     <t>{270.0: 0.9987689782519491}</t>
@@ -535,7 +535,7 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.018864677734124466}</t>
+    <t>{285.0: 1.0, 311.0: 0.11085322214195631}</t>
   </si>
   <si>
     <t>{286.0: 1.0, 306.0: 0.011054877862037047, 908.0: 0.04976895689720476, 909.0: 0.10652080612054489, 142.0: 1.797534470597053e-05}</t>
@@ -574,7 +574,7 @@
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 1.0, 145.0: 0.00038146212501716855, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.195908956541287e-05, 152.0: 1.3980433740563627e-07}</t>
+    <t>{301.0: 1.0, 145.0: 0.00038146212501716855, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.195908956541287e-05, 152.0: 1.3980433740563627e-07}</t>
   </si>
   <si>
     <t>{303.0: 0.9475683890577508, 840.0: 0.10136869118905047}</t>
@@ -598,7 +598,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12466991622534365}</t>
+    <t>{311.0: 0.17687597739945896}</t>
   </si>
   <si>
     <t>{312.0: 1.0, 226.0: 0.0002714072465734835}</t>
@@ -619,7 +619,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -628,7 +628,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.9342287181512937, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
+    <t>{400.0: 0.9383618695048589, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379, 165.0: 0.0005466721333880005, 914.0: 0.0001031603722451275}</t>
@@ -685,7 +685,7 @@
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14934163476504986}</t>
+    <t>{597.0: 0.13779986025929664}</t>
   </si>
   <si>
     <t>{423.0: 0.9970319608416004, 202.0: 0.0008365575656174841, 853.0: 1.403420134868675e-05}</t>
@@ -700,10 +700,10 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.26721824686940965, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7327817531305904}</t>
+    <t>{428.0: 0.21205489175440673, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7879451082455933}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
@@ -790,13 +790,13 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 1.0, 97.0: 0.023935463622743416}</t>
+    <t>{492.0: 1.0, 97.0: 0.023913661390085057}</t>
   </si>
   <si>
     <t>{493.0: 0.9993252361673415}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.629934096866161e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.629934096866161e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -853,7 +853,7 @@
     <t>{536.0: 1.0}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267, 293.0: 0.035617916891527254}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826, 293.0: 0.035617916891527254}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
@@ -865,10 +865,10 @@
     <t>{540.0: 1.0}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -928,7 +928,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.45294474802671525}</t>
+    <t>{583.0: 0.5739952718676123}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -946,7 +946,7 @@
     <t>{588.0: 1.0}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -955,16 +955,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 85.0: 0.005424616535727646}</t>
+    <t>{593.0: 0.49682353666810586}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 85.0: 0.005424616535727646}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.8506583652349502}</t>
+    <t>{597.0: 0.8622001397407033}</t>
   </si>
   <si>
     <t>{598.0: 1.0}</t>
@@ -994,7 +994,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 610.0: 0.0008002743797873557, 531.0: 0.12147832833239579, 886.0: 0.05296831411160708, 1.0: 1.0}</t>
@@ -1075,13 +1075,13 @@
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9791838282418237, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05}</t>
   </si>
   <si>
-    <t>{681.0: 0.9154917227833894, 171.0: 0.004370839753962654, 90.0: 0.0006502117460433972, 420.0: 1.1287355111986579e-06, 212.0: 0.007045575370934223}</t>
+    <t>{681.0: 0.9154121064564757, 171.0: 0.004370839753962654, 90.0: 0.0006502117460433972, 420.0: 1.1287355111986579e-06, 212.0: 0.007045575370934223}</t>
   </si>
   <si>
     <t>{682.0: 0.9972826086956522, 575.0: 0.001898599635799961}</t>
@@ -1129,10 +1129,10 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20776196468091965}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7922380353190803, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4351638564266561}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5648361435733439, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1186,13 +1186,13 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.5470552519732848}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.0002183776634512975, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.4260047281323877}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.0002183776634512975, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1291,7 +1291,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9968371837183718, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9968371837183718, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{787.0: 1.0, 500.0: 0.0077458518588053235, 277.0: 2.053999443459568e-06}</t>
@@ -1300,7 +1300,7 @@
     <t>{788.0: 0.9621508701947207}</t>
   </si>
   <si>
-    <t>{789.0: 1.0, 681.0: 0.0792530219613553, 171.0: 0.0003783783625669412, 90.0: 5.628805209951758e-05, 420.0: 9.771328132341241e-08, 212.0: 0.000609927021410275}</t>
+    <t>{789.0: 1.0, 681.0: 0.07924612967129047, 171.0: 0.0003783783625669412, 90.0: 5.628805209951758e-05, 420.0: 9.771328132341241e-08, 212.0: 0.000609927021410275}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
@@ -1345,7 +1345,7 @@
     <t>{847.0: 0.9940119760479041}</t>
   </si>
   <si>
-    <t>{848.0: 0.9617391304347827}</t>
+    <t>{848.0: 0.9613653825046647}</t>
   </si>
   <si>
     <t>{849.0: 1.0, 315.0: 0.002220029600394672}</t>
@@ -1375,13 +1375,13 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.06410669123707292}</t>
+    <t>{858.0: 0.308581204304183}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6808248608561583, 619.0: 0.0001431947985895543}</t>
+    <t>{861.0: 0.6849891000612596, 619.0: 0.0001431947985895543}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1399,7 +1399,7 @@
     <t>{887.0: 0.9495979142632915, 619.0: 0.0006435006435006435, 267.0: 0.07029177718832891}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1432,10 +1432,10 @@
     <t>{909.0: 0.8934791938794551}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.3191751391438416}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.3150108999387404}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1504,7 +1504,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0018182412250789639}</t>
+    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1513,7 +1513,7 @@
     <t>{942.0: 0.9686767526102706}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 848.0: 0.03826086956521739}</t>
+    <t>{943.0: 1.0, 848.0: 0.03863461749533531}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
@@ -1696,7 +1696,7 @@
     <t>{177.0: 0.9988607234406153, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.9897703150308813, 681.0: 0.003661664434617832, 768.0: 0.006568020534500982}</t>
+    <t>{178.0: 0.9897143861407849, 681.0: 0.0037175933247143326, 768.0: 0.006568020534500982}</t>
   </si>
   <si>
     <t>{179.0: 0.9031784935445895, 180.0: 0.09682150645541039}</t>
@@ -1759,7 +1759,7 @@
     <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9947452593100297, 738.0: 0.003714175107252557, 228.0: 0.001540565582717742}</t>
@@ -2155,7 +2155,7 @@
     <t>{781.0: 0.9992775312209718, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.20471452899524967}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611933, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2275,13 +2275,13 @@
     <t>{934.0: 0.9935019726154563, 5.0: 0.006498027384543977}</t>
   </si>
   <si>
-    <t>{940.0: 0.9932928107315031, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.003833906064369998, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9932928107315031, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.0033035414140719214, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8842105263157893, 848.0: 0.11578947368421055}</t>
+    <t>{943.0: 0.8510998307952624, 848.0: 0.14890016920473773}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
